--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/nicholas_oliveira-rodrigues-braganca_student-cs_fr/Documents/CentraleSupélec/Machine Learning/kaggle/challange-multi-task-change-detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{A49CA522-A236-3E43-88C4-266C5CEC65C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47725A1A-D358-7142-9E19-3CFE0D5ABD13}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{A49CA522-A236-3E43-88C4-266C5CEC65C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E64E6D0-2AA0-B245-9F85-821A47781219}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{821503FA-0618-CF4F-8A70-306495BCD2DE}"/>
   </bookViews>
@@ -508,6 +508,7 @@
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
